--- a/Output_testing/R1_201907/Country/HKD/MN/LATVIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/LATVIA_201907_HKD_MN.xlsx
@@ -810,136 +810,443 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>167.467395</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>32.44672764391648</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>191.04516</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>26.61118733127742</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>296.087532</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>35.03894909456821</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>256.354603</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>54.88345580573715</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>181.9944212417859</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>158.282101</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>30.6670813268092</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>310.549867</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>43.25731511041833</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>219.562574</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>25.98299834340328</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>78.35728899999999</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>16.77566448022341</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-27.3217003095854</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>26.6843</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>5.170070355895609</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>37.983712</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>5.290852045502175</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>44.951579</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>5.319562352600046</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>20.039892</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>4.290379474612926</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-9.075221966092862</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>23.659692</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>4.584054003246122</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>16.518127</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>2.300853745569014</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>35.034987</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>4.146034511246691</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>17.155509</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>3.672856305320275</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>0.749216008778042</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MOTORCYCLES (INCLUDING MOPEDS) AND CYCLES, MOTORIZED AND NON-MOTORIZED; INVALID CARRIAGES</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>0.766427</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.1484948644955275</v>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>16.463811</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.524769334500731</v>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>2.772483</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.5371672545476002</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>5.118494</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.7129686126987959</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>11.180808</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>1.323134951687668</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>7.456079</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.596286462157205</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>48.20051380669141</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>13.413449</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.598849325079451</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>30.729718</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>4.280423970622065</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>84.14766899999999</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>9.958021098023051</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>6.885396</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.47410782817502</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-91.08487029983294</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>11.840137</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2.294020877948561</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>9.691243999999999</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.349919095344359</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>13.176436</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.559297235966815</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>6.302249</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.349260752178696</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>11.39372041386912</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>1.454801</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.281866997591366</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>3.028228</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.42180991441929</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>18.18417</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.151911641308066</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>5.976521</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.279525010813088</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-65.766939577443</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>5.727253</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.109652528116315</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>8.040697</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.120010023499367</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>4.389947</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.5195055949226948</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>5.163374</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.10543678725165</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>135.872067287421</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>104.062269</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>20.16201482235376</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>105.207703</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>14.65466015064919</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>118.308306</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>14.00058517627348</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>46.93431</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>10.04825775902985</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-25.10552162413382</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1278,565 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>17.92426479390288</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>30.31872677262897</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>0.72031</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>59.83282261969929</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>405.8143617544205</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>0.654317</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>40.51019353129134</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>1.305964</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>65.96380780263247</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>36.14262918092678</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>28.66959998205788</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>4.375884127119932</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>9.026300914257199</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>10.92539267478492</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>12.33365527956831</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>3.035458118020951</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-47.21812982060837</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>0.723345</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>44.78386766642459</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>16.07544040145295</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>2.772306999670231</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-78.20408163265307</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>1.900580179062414</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>3.415918323846776</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>4.979633401221996</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>1.313928153431722</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-33.55735707985047</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0.6838200559562305</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>1.770616404832967</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.1499149642009784</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>2.136837067566622</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.9584005854415979</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1868,443 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>167.467395</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>32.54858599722851</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>191.04516</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>26.68477707312584</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>296.087532</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>35.07849077064171</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>256.354603</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>55.02527745238643</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>181.9944212417859</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>158.282101</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>30.76335292741914</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>310.549867</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>43.37693753133489</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>219.562574</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>26.0123203216721</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>78.35728899999999</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>16.819013652124</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-27.3217003095854</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>26.6843</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>5.186300493453335</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>37.983712</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>5.305483201614817</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>44.951579</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>5.325565512421751</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>20.039892</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>4.301466033811998</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-9.075221966092862</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>23.659692</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>4.598444489627006</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>16.518127</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>2.307216454269665</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>35.034987</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>4.150713337463505</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>17.155509</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>3.682347153181067</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>0.749216008778042</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MOTORCYCLES (INCLUDING MOPEDS) AND CYCLES, MOTORIZED AND NON-MOTORIZED; INVALID CARRIAGES</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>0.766427</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.1489610268321057</v>
+      </c>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F48" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>16.463811</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.53387751808245</v>
+      </c>
+      <c r="K48" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>2.772483</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.5388535562480928</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>5.118494</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.7149402337129722</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>11.180808</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.324628117864541</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>7.456079</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.60041134772178</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>48.20051380669141</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>13.413449</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.607007759904181</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>30.729718</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>4.292260920664112</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>84.14766899999999</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>9.969258787930029</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>6.885396</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.477916997923192</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-91.08487029983294</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>11.116792</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>2.160634674142402</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>9.691243999999999</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.35365211922285</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>13.023311</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.542915676424689</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>6.268874</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.345583528157096</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>13.8861613270139</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>1.454801</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.2827518482469619</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>3.028228</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.4229763743116953</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>18.18417</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>2.154340087230623</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>5.976521</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.282831368645306</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-65.766939577443</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>5.727253</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.113136003568844</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>8.040697</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.123107264049776</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>4.389947</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.5200918602783526</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>5.163374</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.108293292242692</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>135.872067287421</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>103.170423</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>20.05197122332942</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>103.227884</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>14.41864882769338</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>117.508891</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>13.9216755280727</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>45.763814</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>9.822981655723991</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-26.69623720825</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2336,463 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>3.968933</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>3.756444246772702</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>4.791643</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>3.045693948871396</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>6.210535</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>5.673019002382782</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>24.000998</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>29.14087518089509</v>
+      </c>
+      <c r="K57" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>48.454886</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>45.86070809024167</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>92.80411700000001</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>58.98873049959128</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>28.969146</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>26.46189349883725</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>13.721891</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>16.6604702386479</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-7.672246926286319</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>5.923617</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>5.606478365781173</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>12.766215</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>8.114541040618271</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>23.482106</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>21.44975168064696</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>11.567428</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>14.04462329074778</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>7.209530108386342</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>8.924417</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>8.446621521565241</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>10.072549</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>6.402376291182509</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>14.941692</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>13.64850252735888</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>9.627978000000001</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>11.68983494529702</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>32.98482977750958</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>3.112538</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>2.945898926225616</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>5.739335</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>3.648071836746981</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>3.888869</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>3.552291024006359</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>4.237901</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>5.145458704258483</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>140.5581556398809</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>WASTE, PARINGS AND SCRAP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>1.829057</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>1.731132937912869</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>2.042283</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.298128632492638</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>0.6862819999999999</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.626884934549642</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>2.620629</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>3.181843629353826</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>469.9088582159175</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>MEDICINAL AND PHARMACEUTICAL PRODUCTS, OTHER THAN MEDICAMENTS OF GROUP 542</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.3676457323047084</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>3.156796874460271</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>3.60599</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>3.412932490777722</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>4.374245</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>2.780384834049815</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>3.553787</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>3.246210057816421</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>2.156865</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.618763342551059</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>21.53796566408004</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.06888539694890561</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.4116585387041264</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>1.973878</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.396589192679189</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.2564065339223165</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>0.549213</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.501679128344926</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>1.323798</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.607292841852599</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>230.4447456510181</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>29.764426</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>28.1708980237741</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>24.290513</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>15.43968706748019</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>26.340182</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>24.06046387504795</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>8.530601000000001</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>10.35745175925679</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-9.354710513368969</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
